--- a/Stage.xlsx
+++ b/Stage.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alpersaricioglu/Library/Mobile Documents/com~apple~CloudDocs/PhD Thesis/1 Tez Önerisi/1 Çalışmalar/Time series runs 26.3.24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9FA032F-F319-194B-ADA4-E4B378A5533B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A3BAC0-C509-834E-965A-23C8D0B214CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1400" yWindow="1420" windowWidth="27840" windowHeight="16740" xr2:uid="{1B65E5B7-3C56-7145-8436-A099FF646AAE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Stage (2)" sheetId="1" r:id="rId1"/>
+    <sheet name="Stage" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
